--- a/release_note_RDM.xlsx
+++ b/release_note_RDM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F109D74D-CCA2-466B-84BD-E0D51CAC0FC4}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D7DEEB-0D2D-45D6-A129-AAB9C2DB276A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="885" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_R2A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Target</t>
   </si>
@@ -159,6 +159,14 @@
   </si>
   <si>
     <t>[유료상점] 단순 '뽑기' 상품 비정상 출력 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[유료상점] 이제 테스트케이스도 order값에 맞게 정렬됩니다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[이벤트] 체크리스트 상점, 패스 추가</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -621,8 +629,8 @@
   </sheetPr>
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1058,8 +1066,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11">
+        <v>45257</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="11">
+        <v>45259</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1182,6 +1204,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1410,16 +1441,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686F6535-D812-4541-A600-6ECB68F1FDB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A25339-9721-4D56-9291-9B616B8271FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1436,12 +1466,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686F6535-D812-4541-A600-6ECB68F1FDB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/release_note_RDM.xlsx
+++ b/release_note_RDM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85D7DEEB-0D2D-45D6-A129-AAB9C2DB276A}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCEB875-2045-43F8-97FB-915FEE6FE0B9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="28800" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="release_note_R2A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Target</t>
   </si>
@@ -167,6 +167,22 @@
   </si>
   <si>
     <t>[이벤트] 체크리스트 상점, 패스 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[유료상점] order열 없으면 생성불가한 문제 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[유료상점] 대만-3자결제 내용 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[유료상점] 구매제한-스텝업만 노출</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -300,7 +316,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,15 +644,15 @@
   </sheetPr>
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,441 +671,585 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
         <v>45127</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
         <v>45127</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9">
         <v>45127</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
         <v>45127</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
         <v>45127</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
         <v>45128</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
         <v>45128</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
         <v>45134</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9">
         <v>45134</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9">
         <v>45135</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9">
         <v>45140</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9">
         <v>45155</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9">
         <v>45156</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
         <v>45170</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="A16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9">
         <v>45174</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9">
         <v>45174</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="A18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9">
         <v>45174</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="A19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
         <v>45176</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10">
+      <c r="A20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9">
         <v>45212</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9">
         <v>45219</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="10">
+      <c r="A22" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="9">
         <v>45219</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9">
         <v>45219</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10">
+      <c r="A24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="9">
         <v>45219</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="10">
+      <c r="A25" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="9">
         <v>45219</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="11">
+      <c r="A26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10">
         <v>45225</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11">
+      <c r="A27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10">
         <v>45225</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="11">
+      <c r="A28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10">
         <v>45229</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="11">
+      <c r="A29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10">
         <v>45229</v>
       </c>
       <c r="C29" t="s">
         <v>37</v>
       </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="11">
+      <c r="A30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="10">
         <v>45236</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
       </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="11">
+      <c r="A31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10">
         <v>45243</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
       </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="11">
+      <c r="A32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10">
         <v>45244</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11">
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="10">
         <v>45244</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="11">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10">
         <v>45244</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="10">
         <v>45253</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11">
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10">
         <v>45254</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10">
         <v>45254</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11">
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10">
         <v>45257</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10">
         <v>45259</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="10">
+        <v>45261</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="10">
+        <v>45264</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="10">
+        <v>45264</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="49" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1193,8 +1352,8 @@
     <row r="148" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="1:3" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="14"/>
-      <c r="B150" s="12"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="11"/>
       <c r="C150" s="2"/>
     </row>
   </sheetData>
@@ -1204,15 +1363,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="14" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c73faac0d5522cd1062ab959a8e66599">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87c65ceb92f45bbb5f0f16055108a0db" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -1441,15 +1591,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686F6535-D812-4541-A600-6ECB68F1FDB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A25339-9721-4D56-9291-9B616B8271FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1466,4 +1617,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686F6535-D812-4541-A600-6ECB68F1FDB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/release_note_RDM.xlsx
+++ b/release_note_RDM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDCEB875-2045-43F8-97FB-915FEE6FE0B9}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{6E745F69-1FE7-4EC3-AAA2-A80D652D5274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E0E0C57-DA86-4EFC-B7E7-466D08CC6B07}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>Target</t>
   </si>
@@ -183,6 +183,14 @@
   </si>
   <si>
     <t>[유료상점] 구매제한-스텝업만 노출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[유료상점] 시즌뽑기 체크리스트 수정(확정보상/상세정보/이미지)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[이벤트] 데이터 문서 열 'etc'에 점검 시 필요한 내용 작성 가능</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +653,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A42"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1244,8 +1252,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10">
+        <v>45267</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10">
+        <v>45272</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
